--- a/biology/Botanique/Monoptilon_bellioides/Monoptilon_bellioides.xlsx
+++ b/biology/Botanique/Monoptilon_bellioides/Monoptilon_bellioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monoptilon bellioides est une espèce de plante à fleurs de la famille des Asteraceae, originaire du continent nord-américain.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante annuelle à port rampant forme un buisson bas qui ne dépasse guère les 3 à 5 cm de hauteur, mais qui peut atteindre jusqu'à 25 cm de diamètre. Les tiges, généralement rougeâtres, sont couvertes de poils blancs hérissés, bien visibles. Les feuilles, qui mesurent environ 1,3 cm de longueur sont peu nombreuses, très étroites et elles aussi couvertes de poils blancs[1].
-Appareil reproducteur
-La floraison a lieu de juin à mai, et parfois une deuxième fois en septembre, si les pluies estivales ont été suffisantes.
-L'inflorescence est un capitule constitué de fleurons ligulés blancs, parfois teintés de rose, entourant des fleurons tubulés jaunes. Chaque fleur mesure environ 2 cm de diamètre et possède entre 14 et 20 fleurons ligulés[1].
-Les fruits sont des akènes arrondis et velus, portant à leur sommet quelques écailles courtes et des soies hérissées.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante annuelle à port rampant forme un buisson bas qui ne dépasse guère les 3 à 5 cm de hauteur, mais qui peut atteindre jusqu'à 25 cm de diamètre. Les tiges, généralement rougeâtres, sont couvertes de poils blancs hérissés, bien visibles. Les feuilles, qui mesurent environ 1,3 cm de longueur sont peu nombreuses, très étroites et elles aussi couvertes de poils blancs.
 </t>
         </is>
       </c>
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juin à mai, et parfois une deuxième fois en septembre, si les pluies estivales ont été suffisantes.
+L'inflorescence est un capitule constitué de fleurons ligulés blancs, parfois teintés de rose, entourant des fleurons tubulés jaunes. Chaque fleur mesure environ 2 cm de diamètre et possède entre 14 et 20 fleurons ligulés.
+Les fruits sont des akènes arrondis et velus, portant à leur sommet quelques écailles courtes et des soies hérissées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Monoptilon_bellioides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monoptilon_bellioides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Monoptilon bellioides pousse sur les replats sablonneux ou gravillonneux des déserts du sud-ouest du continent nord-américain. Son aire de répartition s'étend, au nord, du sud de la Californie à l'ouest de l'Arizona aux États-Unis et vers le sud jusqu'au nord-ouest du Mexique.
 </t>
